--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="G17" activeCellId="0" pane="topLeft" sqref="G17"/>
@@ -1066,35 +1066,370 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="2" t="inlineStr">
         <is>
           <t>2022-12-19 03:54:19</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>781678351607</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>ansh</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>19105031</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>7696046760</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>ENTRY</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
+      <c r="B21" s="2" t="n">
+        <v>781678351607</v>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>ansh</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>19105031</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>7696046760</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>ENTRY</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>FINGERPRINT MISMATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>2022-12-19 10:13:30</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>781678351607</v>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>ansh</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>19105031</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>7696046760</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>ENTRY</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>2022-12-19 10:14:36</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>781678351607</v>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>ansh</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>19105031</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>7696046760</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>ENTRY</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>2022-12-19 10:15:49</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>781678351607</v>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>ansh</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>19105031</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>7696046760</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>ENTRY</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>2022-12-19 10:26:02</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>781678351607</v>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>ansh</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>19105031</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>7696046760</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>ENTRY</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>2022-12-19 10:26:46</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>781678351607</v>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>ansh</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>19105031</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>7696046760</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>ENTRY</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>2022-12-19 10:27:51</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>781678351607</v>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>ansh</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>19105031</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>7696046760</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>ENTRY</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>2022-12-19 10:28:32</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>781678351607</v>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>ansh</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>19105031</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>7696046760</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>ENTRY</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>2022-12-19 10:30:25</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>781678351607</v>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>ansh</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>19105031</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>7696046760</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>ENTRY</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>2022-12-19 10:32:29</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>781678351607</v>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>ansh</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>19105031</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>7696046760</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>ENTRY</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>2022-12-19 10:40:41</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>781678351607</v>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>ansh</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>19105031</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>7696046760</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>ENTRY</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2022-12-19 14:54:22</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>781678351607</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>ansh</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>19105031</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>7696046760</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>ENTRY</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
         <is>
           <t>FINGERPRINT MISMATCH</t>
         </is>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="G17" activeCellId="0" pane="topLeft" sqref="G17"/>
@@ -1401,35 +1401,245 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="2" t="inlineStr">
         <is>
           <t>2022-12-19 14:54:22</t>
         </is>
       </c>
-      <c r="B32" t="n">
-        <v>781678351607</v>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>ansh</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>19105031</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>7696046760</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>ENTRY</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
+      <c r="B32" s="2" t="n">
+        <v>781678351607</v>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>ansh</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>19105031</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>7696046760</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>ENTRY</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>FINGERPRINT MISMATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>2022-12-19 17:39:37</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>279590476710</v>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>Ashok</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>19105092</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>8968963929</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>ENTRY</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>Card RESCAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>2022-12-19 17:44:52</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>279590476710</v>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>Ashok</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>19105092</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>8968963929</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>ENTRY</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>Card RESCAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>2022-12-19 17:45:45</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>781678351607</v>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>Ansh</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>19105031</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>7696046760</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>ENTRY</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>Card RESCAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>2022-12-19 17:46:01</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>207555731976</v>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>Shreyas</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>19105077</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>7589802655</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>ENTRY</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>Card RESCAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>2022-12-19 17:49:46</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>902634020041</v>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>Shubham</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>19105006</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>8059241611</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>ENTRY</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>Card RESCAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2022-12-19 17:53:13</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>781678351607</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Ansh</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>19105031</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>7696046760</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>ENTRY</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
         <is>
           <t>FINGERPRINT MISMATCH</t>
         </is>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100">
       <selection activeCell="G3" activeCellId="0" pane="topLeft" sqref="G3"/>
@@ -799,47 +799,275 @@
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="11" s="3">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="2" t="inlineStr">
         <is>
           <t>2022-12-19 21:44:52</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>781678351607</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Ansh Chawla</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>19105031</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>7696046760</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>ENTRY</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
+      <c r="B11" s="2" t="n">
+        <v>781678351607</v>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>Ansh Chawla</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>19105031</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>7696046760</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>ENTRY</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
         <is>
           <t>Card RESCAN</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" hidden="1" ht="13.8" r="12" s="3"/>
-    <row customHeight="1" ht="13.8" r="13" s="3"/>
-    <row customHeight="1" ht="13.8" r="14" s="3"/>
-    <row customHeight="1" ht="13.8" r="15" s="3"/>
-    <row customHeight="1" ht="13.8" r="16" s="3"/>
-    <row customHeight="1" ht="13.8" r="17" s="3"/>
-    <row customHeight="1" ht="13.8" r="18" s="3"/>
+    <row customHeight="1" hidden="1" ht="13.8" r="12" s="3">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>2022-12-20 00:07:38</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>781678351607</v>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>Ansh Chawla</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>19105031</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>7696046760</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>ENTRY</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>Card RESCAN</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="13" s="3">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>2022-12-20 00:10:28</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>781678351607</v>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>Ansh Chawla</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>19105031</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>7696046760</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>ENTRY</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>Card RESCAN</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="14" s="3">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>2022-12-20 00:13:52</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>781678351607</v>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>Ansh Chawla</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>19105031</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>7696046760</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>ENTRY</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>Card RESCAN</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="15" s="3">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>2022-12-20 00:14:53</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>781678351607</v>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>Ansh Chawla</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>19105031</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>7696046760</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>EXIT</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="16" s="3">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>2022-12-20 00:16:46</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>781678351607</v>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>Ansh Chawla</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>19105031</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>7696046760</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>EXIT</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>Card RESCAN</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="17" s="3">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>2022-12-20 00:17:09</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>781678351607</v>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>Ansh Chawla</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>19105031</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>7696046760</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>ENTRY</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="18" s="3">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2022-12-20 00:19:10</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>781678351607</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Ansh Chawla</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>19105031</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>7696046760</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>ENTRY</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Card RESCAN</t>
+        </is>
+      </c>
+    </row>
     <row customHeight="1" ht="13.8" r="19" s="3"/>
     <row customHeight="1" ht="13.8" r="20" s="3"/>
     <row customHeight="1" ht="13.8" r="21" s="3"/>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100">
       <selection activeCell="G3" activeCellId="0" pane="topLeft" sqref="G3"/>
@@ -1034,44 +1034,175 @@
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="18" s="3">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="2" t="inlineStr">
         <is>
           <t>2022-12-20 00:19:10</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>781678351607</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Ansh Chawla</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>19105031</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>7696046760</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>ENTRY</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
+      <c r="B18" s="2" t="n">
+        <v>781678351607</v>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>Ansh Chawla</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>19105031</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>7696046760</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>ENTRY</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>Card RESCAN</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="19" s="3"/>
-    <row customHeight="1" ht="13.8" r="20" s="3"/>
-    <row customHeight="1" ht="13.8" r="21" s="3"/>
-    <row customHeight="1" ht="13.8" r="22" s="3"/>
+    <row customHeight="1" ht="13.8" r="19" s="3">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>2022-12-20 03:11:04</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>781678351607</v>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>Ansh Chawla</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>19105031</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>7696046760</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>ENTRY</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>Card RESCAN</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="20" s="3">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>2022-12-20 03:11:36</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>781678351607</v>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>Ansh Chawla</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>19105031</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>7696046760</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>ENTRY</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>Card RESCAN</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="21" s="3">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>2022-12-20 03:12:09</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>781678351607</v>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>Ansh Chawla</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>19105031</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>7696046760</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>EXIT</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="22" s="3">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2022-12-20 03:12:20</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>781678351607</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Ansh Chawla</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>19105031</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>7696046760</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>EXIT</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Card RESCAN</t>
+        </is>
+      </c>
+    </row>
     <row customHeight="1" ht="13.8" r="23" s="3"/>
     <row customHeight="1" ht="13.8" r="24" s="3"/>
     <row customHeight="1" ht="13.8" r="25" s="3"/>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100">
       <selection activeCell="G3" activeCellId="0" pane="topLeft" sqref="G3"/>
@@ -1169,51 +1169,420 @@
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="22" s="3">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="2" t="inlineStr">
         <is>
           <t>2022-12-20 03:12:20</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>781678351607</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Ansh Chawla</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>19105031</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>7696046760</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
+      <c r="B22" s="2" t="n">
+        <v>781678351607</v>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>Ansh Chawla</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>19105031</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>7696046760</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
         <is>
           <t>EXIT</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Card RESCAN</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="13.8" r="23" s="3"/>
-    <row customHeight="1" ht="13.8" r="24" s="3"/>
-    <row customHeight="1" ht="13.8" r="25" s="3"/>
-    <row customHeight="1" ht="13.8" r="26" s="3"/>
-    <row customHeight="1" ht="13.8" r="27" s="3"/>
-    <row customHeight="1" ht="13.8" r="28" s="3"/>
-    <row customHeight="1" ht="13.8" r="29" s="3"/>
-    <row customHeight="1" ht="13.8" r="30" s="3"/>
-    <row customHeight="1" ht="13.8" r="31" s="3"/>
-    <row customHeight="1" ht="13.8" r="32" s="3"/>
-    <row customHeight="1" ht="13.8" r="33" s="3"/>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>Card RESCAN</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="23" s="3">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>2022-12-20 23:43:19</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>279590476710</v>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>Ashok</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>19105092</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>8968963929</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>ENTRY</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>Card RESCAN</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="24" s="3">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>2022-12-20 23:48:02</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>781678351607</v>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>Ansh Chawla</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>19105031</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>7696046760</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>ENTRY</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="25" s="3">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>2022-12-20 23:51:14</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>781678351607</v>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>Ansh Chawla</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>19105031</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>7696046760</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>ENTRY</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>Card RESCAN</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="26" s="3">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>2022-12-20 23:51:49</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>781678351607</v>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>Ansh Chawla</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>19105031</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>7696046760</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>ENTRY</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>FINGERPRINT MISMATCH</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="27" s="3">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>2022-12-20 23:56:01</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>781678351607</v>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>Ansh Chawla</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>19105031</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>7696046760</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>ENTRY</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>Card RESCAN</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="28" s="3">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>2022-12-21 00:00:17</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>781678351607</v>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>Ansh Chawla</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>19105031</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>7696046760</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>ENTRY</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>Card RESCAN</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="29" s="3">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>2022-12-21 00:03:55</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>781678351607</v>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>Ansh Chawla</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>19105031</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>7696046760</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>ENTRY</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>Card RESCAN</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="30" s="3">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>2022-12-21 00:04:47</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>781678351607</v>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>Ansh Chawla</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>19105031</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>7696046760</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>ENTRY</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>Card RESCAN</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="31" s="3">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>2022-12-21 00:05:31</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>781678351607</v>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>Ansh Chawla</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>19105031</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>7696046760</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>ENTRY</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>Card RESCAN</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="32" s="3">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>2022-12-21 00:06:39</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>781678351607</v>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>Ansh Chawla</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>19105031</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>7696046760</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>ENTRY</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>Card RESCAN</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="33" s="3">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2022-12-21 00:10:29</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>781678351607</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Ansh Chawla</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>19105031</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>7696046760</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>ENTRY</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Card RESCAN</t>
+        </is>
+      </c>
+    </row>
     <row customHeight="1" ht="13.8" r="34" s="3"/>
     <row customHeight="1" ht="13.8" r="35" s="3"/>
     <row customHeight="1" ht="13.8" r="36" s="3"/>
